--- a/inst/extdata/richard.xlsx
+++ b/inst/extdata/richard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257728C2-5211-43A0-B0E6-E7C416D1952B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27760F-9783-4E84-84D4-DB6B52CFB911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23580" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20100" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Richard" sheetId="6" r:id="rId1"/>
@@ -230,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,34 +238,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,588 +578,588 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="11">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="11">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
